--- a/mutation-analysis/mutants-rasa/results_Veterinary.xlsx
+++ b/mutation-analysis/mutants-rasa/results_Veterinary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB734C4F-1F0E-47C1-AE1F-CF696F4739DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25FBA8-BDD5-4CD1-A76F-972B81B7AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30994DF1-0BCB-424C-A5E9-BD42686768CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>mutant_DA_001</t>
   </si>
@@ -483,6 +483,18 @@
   </si>
   <si>
     <t>mutant_SO_105</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>survived</t>
+  </si>
+  <si>
+    <t>Killed</t>
+  </si>
+  <si>
+    <t>Survived</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,7 +592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +930,7 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,951 +964,1010 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="H2" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="4">
         <f>(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="H3" t="s">
         <v>92</v>
       </c>
+      <c r="I3">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="I4" t="e">
+      <c r="I4">
         <f>COUNTIF(E2:E94, "Killed")/(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
-        <v>#DIV/0!</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">

--- a/mutation-analysis/mutants-rasa/results_Veterinary.xlsx
+++ b/mutation-analysis/mutants-rasa/results_Veterinary.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E38D1D-0C57-471B-91E4-6CF3C17B191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,491 +36,490 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
-  <si>
-    <t xml:space="preserve">mutant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensei chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensei check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+  <si>
+    <t>mutant</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sensei chat</t>
+  </si>
+  <si>
+    <t>sensei check</t>
+  </si>
+  <si>
+    <t>botium</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>mutant_DA_001</t>
   </si>
   <si>
     <t xml:space="preserve">mutantes = </t>
   </si>
   <si>
-    <t xml:space="preserve">mutant_DA_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botium # tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed (all_slots)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mut Score Botium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DA_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DCS_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DF_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DIP_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed by appointment_hour – not sure this is legit error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DPR_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensei no parece detectar que hay un fallo aunque sigue intentándo la conversación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DSYN_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DSYN_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DSYN_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_DSYN_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_K2TP_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant_SO_105</t>
+    <t>mutant_DA_002</t>
+  </si>
+  <si>
+    <t>Botium # tests</t>
+  </si>
+  <si>
+    <t>mutant_DA_003</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>survived</t>
+  </si>
+  <si>
+    <t>killed (all_slots)</t>
+  </si>
+  <si>
+    <t>Mut Score Botium</t>
+  </si>
+  <si>
+    <t>mutant_DA_004</t>
+  </si>
+  <si>
+    <t>mutant_DA_005</t>
+  </si>
+  <si>
+    <t>mutant_DA_006</t>
+  </si>
+  <si>
+    <t>mutant_DA_007</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>Killed</t>
+  </si>
+  <si>
+    <t>mutant_DA_008</t>
+  </si>
+  <si>
+    <t>mutant_DA_009</t>
+  </si>
+  <si>
+    <t>mutant_DA_010</t>
+  </si>
+  <si>
+    <t>mutant_DCS_001</t>
+  </si>
+  <si>
+    <t>mutant_DCS_002</t>
+  </si>
+  <si>
+    <t>mutant_DCS_003</t>
+  </si>
+  <si>
+    <t>mutant_DCS_004</t>
+  </si>
+  <si>
+    <t>mutant_DCS_005</t>
+  </si>
+  <si>
+    <t>mutant_DCS_006</t>
+  </si>
+  <si>
+    <t>mutant_DCS_007</t>
+  </si>
+  <si>
+    <t>mutant_DCS_008</t>
+  </si>
+  <si>
+    <t>mutant_DF_001</t>
+  </si>
+  <si>
+    <t>mutant_DIP_001</t>
+  </si>
+  <si>
+    <t>mutant_DIP_002</t>
+  </si>
+  <si>
+    <t>mutant_DIP_003</t>
+  </si>
+  <si>
+    <t>killed?</t>
+  </si>
+  <si>
+    <t>killed by appointment_hour – not sure this is legit error</t>
+  </si>
+  <si>
+    <t>mutant_DPR_001</t>
+  </si>
+  <si>
+    <t>Sensei no parece detectar que hay un fallo aunque sigue intentándo la conversación</t>
+  </si>
+  <si>
+    <t>mutant_DSYN_001</t>
+  </si>
+  <si>
+    <t>mutant_DSYN_002</t>
+  </si>
+  <si>
+    <t>mutant_DSYN_003</t>
+  </si>
+  <si>
+    <t>mutant_DSYN_004</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_001</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_002</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_003</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_004</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_005</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_006</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_007</t>
+  </si>
+  <si>
+    <t>mutant_K2TP_008</t>
+  </si>
+  <si>
+    <t>mutant_SO_001</t>
+  </si>
+  <si>
+    <t>mutant_SO_002</t>
+  </si>
+  <si>
+    <t>mutant_SO_003</t>
+  </si>
+  <si>
+    <t>mutant_SO_004</t>
+  </si>
+  <si>
+    <t>mutant_SO_005</t>
+  </si>
+  <si>
+    <t>mutant_SO_006</t>
+  </si>
+  <si>
+    <t>mutant_SO_007</t>
+  </si>
+  <si>
+    <t>mutant_SO_008</t>
+  </si>
+  <si>
+    <t>mutant_SO_009</t>
+  </si>
+  <si>
+    <t>mutant_SO_010</t>
+  </si>
+  <si>
+    <t>mutant_SO_011</t>
+  </si>
+  <si>
+    <t>mutant_SO_012</t>
+  </si>
+  <si>
+    <t>mutant_SO_013</t>
+  </si>
+  <si>
+    <t>mutant_SO_014</t>
+  </si>
+  <si>
+    <t>mutant_SO_015</t>
+  </si>
+  <si>
+    <t>mutant_SO_016</t>
+  </si>
+  <si>
+    <t>mutant_SO_017</t>
+  </si>
+  <si>
+    <t>mutant_SO_018</t>
+  </si>
+  <si>
+    <t>mutant_SO_019</t>
+  </si>
+  <si>
+    <t>mutant_SO_020</t>
+  </si>
+  <si>
+    <t>mutant_SO_021</t>
+  </si>
+  <si>
+    <t>mutant_SO_022</t>
+  </si>
+  <si>
+    <t>mutant_SO_023</t>
+  </si>
+  <si>
+    <t>mutant_SO_024</t>
+  </si>
+  <si>
+    <t>mutant_SO_025</t>
+  </si>
+  <si>
+    <t>mutant_SO_026</t>
+  </si>
+  <si>
+    <t>mutant_SO_027</t>
+  </si>
+  <si>
+    <t>mutant_SO_028</t>
+  </si>
+  <si>
+    <t>mutant_SO_029</t>
+  </si>
+  <si>
+    <t>mutant_SO_030</t>
+  </si>
+  <si>
+    <t>mutant_SO_031</t>
+  </si>
+  <si>
+    <t>mutant_SO_032</t>
+  </si>
+  <si>
+    <t>mutant_SO_033</t>
+  </si>
+  <si>
+    <t>mutant_SO_034</t>
+  </si>
+  <si>
+    <t>mutant_SO_035</t>
+  </si>
+  <si>
+    <t>mutant_SO_036</t>
+  </si>
+  <si>
+    <t>mutant_SO_037</t>
+  </si>
+  <si>
+    <t>mutant_SO_038</t>
+  </si>
+  <si>
+    <t>mutant_SO_039</t>
+  </si>
+  <si>
+    <t>mutant_SO_040</t>
+  </si>
+  <si>
+    <t>mutant_SO_041</t>
+  </si>
+  <si>
+    <t>mutant_SO_042</t>
+  </si>
+  <si>
+    <t>mutant_SO_043</t>
+  </si>
+  <si>
+    <t>mutant_SO_044</t>
+  </si>
+  <si>
+    <t>Survived</t>
+  </si>
+  <si>
+    <t>mutant_SO_045</t>
+  </si>
+  <si>
+    <t>mutant_SO_046</t>
+  </si>
+  <si>
+    <t>mutant_SO_047</t>
+  </si>
+  <si>
+    <t>mutant_SO_048</t>
+  </si>
+  <si>
+    <t>mutant_SO_049</t>
+  </si>
+  <si>
+    <t>mutant_SO_050</t>
+  </si>
+  <si>
+    <t>mutant_SO_051</t>
+  </si>
+  <si>
+    <t>mutant_SO_052</t>
+  </si>
+  <si>
+    <t>mutant_SO_053</t>
+  </si>
+  <si>
+    <t>mutant_SO_054</t>
+  </si>
+  <si>
+    <t>mutant_SO_055</t>
+  </si>
+  <si>
+    <t>mutant_SO_056</t>
+  </si>
+  <si>
+    <t>mutant_SO_057</t>
+  </si>
+  <si>
+    <t>mutant_SO_058</t>
+  </si>
+  <si>
+    <t>mutant_SO_059</t>
+  </si>
+  <si>
+    <t>mutant_SO_060</t>
+  </si>
+  <si>
+    <t>mutant_SO_061</t>
+  </si>
+  <si>
+    <t>mutant_SO_062</t>
+  </si>
+  <si>
+    <t>mutant_SO_063</t>
+  </si>
+  <si>
+    <t>mutant_SO_064</t>
+  </si>
+  <si>
+    <t>mutant_SO_065</t>
+  </si>
+  <si>
+    <t>mutant_SO_066</t>
+  </si>
+  <si>
+    <t>mutant_SO_067</t>
+  </si>
+  <si>
+    <t>mutant_SO_068</t>
+  </si>
+  <si>
+    <t>mutant_SO_069</t>
+  </si>
+  <si>
+    <t>mutant_SO_070</t>
+  </si>
+  <si>
+    <t>mutant_SO_071</t>
+  </si>
+  <si>
+    <t>mutant_SO_072</t>
+  </si>
+  <si>
+    <t>mutant_SO_073</t>
+  </si>
+  <si>
+    <t>mutant_SO_074</t>
+  </si>
+  <si>
+    <t>mutant_SO_075</t>
+  </si>
+  <si>
+    <t>mutant_SO_076</t>
+  </si>
+  <si>
+    <t>mutant_SO_077</t>
+  </si>
+  <si>
+    <t>mutant_SO_078</t>
+  </si>
+  <si>
+    <t>mutant_SO_079</t>
+  </si>
+  <si>
+    <t>mutant_SO_080</t>
+  </si>
+  <si>
+    <t>mutant_SO_081</t>
+  </si>
+  <si>
+    <t>mutant_SO_082</t>
+  </si>
+  <si>
+    <t>mutant_SO_083</t>
+  </si>
+  <si>
+    <t>mutant_SO_084</t>
+  </si>
+  <si>
+    <t>mutant_SO_085</t>
+  </si>
+  <si>
+    <t>mutant_SO_086</t>
+  </si>
+  <si>
+    <t>mutant_SO_087</t>
+  </si>
+  <si>
+    <t>mutant_SO_088</t>
+  </si>
+  <si>
+    <t>mutant_SO_089</t>
+  </si>
+  <si>
+    <t>mutant_SO_090</t>
+  </si>
+  <si>
+    <t>mutant_SO_091</t>
+  </si>
+  <si>
+    <t>mutant_SO_092</t>
+  </si>
+  <si>
+    <t>mutant_SO_093</t>
+  </si>
+  <si>
+    <t>mutant_SO_094</t>
+  </si>
+  <si>
+    <t>mutant_SO_095</t>
+  </si>
+  <si>
+    <t>mutant_SO_096</t>
+  </si>
+  <si>
+    <t>mutant_SO_097</t>
+  </si>
+  <si>
+    <t>mutant_SO_098</t>
+  </si>
+  <si>
+    <t>mutant_SO_099</t>
+  </si>
+  <si>
+    <t>mutant_SO_100</t>
+  </si>
+  <si>
+    <t>mutant_SO_101</t>
+  </si>
+  <si>
+    <t>mutant_SO_102</t>
+  </si>
+  <si>
+    <t>mutant_SO_103</t>
+  </si>
+  <si>
+    <t>mutant_SO_104</t>
+  </si>
+  <si>
+    <t>mutant_SO_105</t>
+  </si>
+  <si>
+    <t>Mut Score SENSEI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -512,22 +527,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -561,87 +561,60 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -700,32 +673,360 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +1047,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -755,15 +1056,15 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
+      <c r="I2" s="4">
+        <f>(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -772,14 +1073,14 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>93</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -796,15 +1097,15 @@
         <v>12</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E94, "Killed")/(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
-        <v>0.357142857142857</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4">
+        <f>COUNTIF(E2:E94, "Killed")/(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -814,7 +1115,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -823,8 +1124,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6">
+        <f>100*(COUNTIF(C2:C141,"killed")+COUNTIF(D2:D141,"killed*"))/I2</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -834,7 +1142,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -850,7 +1158,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -860,7 +1168,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -870,7 +1178,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -880,7 +1188,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -890,7 +1198,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -906,7 +1214,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -916,7 +1224,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -926,7 +1234,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -936,7 +1244,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -946,7 +1254,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -956,7 +1264,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -972,7 +1280,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -988,7 +1296,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1004,7 +1312,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +1322,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1034,7 +1342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -1051,11 +1359,11 @@
         <v>12</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1065,7 +1373,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
@@ -1083,7 +1391,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -1101,7 +1409,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1111,7 +1419,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1121,7 +1429,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1131,7 +1439,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1455,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -1157,7 +1465,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1167,7 +1475,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +1485,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -1195,7 +1503,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1205,7 +1513,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1523,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -1225,7 +1533,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
@@ -1235,7 +1543,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
@@ -1245,7 +1553,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1563,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -1265,7 +1573,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>58</v>
       </c>
@@ -1283,7 +1591,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
@@ -1293,7 +1601,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
@@ -1303,7 +1611,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
@@ -1313,7 +1621,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
@@ -1323,7 +1631,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
@@ -1333,7 +1641,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
@@ -1343,7 +1651,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
@@ -1353,7 +1661,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
@@ -1363,7 +1671,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
@@ -1373,7 +1681,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
@@ -1383,7 +1691,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
@@ -1393,7 +1701,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
@@ -1403,7 +1711,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
@@ -1413,7 +1721,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
@@ -1423,7 +1731,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
@@ -1433,7 +1741,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
@@ -1443,7 +1751,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>75</v>
       </c>
@@ -1453,7 +1761,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>76</v>
       </c>
@@ -1463,7 +1771,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
@@ -1473,7 +1781,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>78</v>
       </c>
@@ -1483,7 +1791,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>79</v>
       </c>
@@ -1493,7 +1801,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>80</v>
       </c>
@@ -1503,7 +1811,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>81</v>
       </c>
@@ -1513,7 +1821,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>82</v>
       </c>
@@ -1523,7 +1831,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -1533,7 +1841,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>84</v>
       </c>
@@ -1543,7 +1851,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>85</v>
       </c>
@@ -1553,7 +1861,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>86</v>
       </c>
@@ -1563,7 +1871,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>87</v>
       </c>
@@ -1573,7 +1881,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>88</v>
       </c>
@@ -1583,7 +1891,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>89</v>
       </c>
@@ -1593,7 +1901,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
@@ -1603,7 +1911,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>91</v>
       </c>
@@ -1613,7 +1921,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
@@ -1623,7 +1931,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>93</v>
       </c>
@@ -1633,7 +1941,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>94</v>
       </c>
@@ -1643,7 +1951,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>95</v>
       </c>
@@ -1657,7 +1965,7 @@
       </c>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>97</v>
       </c>
@@ -1667,7 +1975,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>98</v>
       </c>
@@ -1677,7 +1985,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>99</v>
       </c>
@@ -1687,7 +1995,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>100</v>
       </c>
@@ -1697,7 +2005,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>101</v>
       </c>
@@ -1707,7 +2015,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>102</v>
       </c>
@@ -1717,7 +2025,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>103</v>
       </c>
@@ -1727,7 +2035,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>104</v>
       </c>
@@ -1737,7 +2045,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>105</v>
       </c>
@@ -1747,7 +2055,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>106</v>
       </c>
@@ -1757,7 +2065,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>107</v>
       </c>
@@ -1767,7 +2075,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>108</v>
       </c>
@@ -1777,7 +2085,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>109</v>
       </c>
@@ -1787,7 +2095,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>110</v>
       </c>
@@ -1797,7 +2105,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>111</v>
       </c>
@@ -1807,7 +2115,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>112</v>
       </c>
@@ -1817,7 +2125,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>113</v>
       </c>
@@ -1827,7 +2135,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>114</v>
       </c>
@@ -1837,7 +2145,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>115</v>
       </c>
@@ -1847,7 +2155,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>116</v>
       </c>
@@ -1857,7 +2165,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>117</v>
       </c>
@@ -1867,7 +2175,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>118</v>
       </c>
@@ -1877,7 +2185,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>119</v>
       </c>
@@ -1887,7 +2195,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>120</v>
       </c>
@@ -1897,7 +2205,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>121</v>
       </c>
@@ -1907,7 +2215,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>122</v>
       </c>
@@ -1917,7 +2225,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>123</v>
       </c>
@@ -1927,7 +2235,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>124</v>
       </c>
@@ -1937,7 +2245,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>125</v>
       </c>
@@ -1947,7 +2255,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>126</v>
       </c>
@@ -1957,7 +2265,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>127</v>
       </c>
@@ -1967,7 +2275,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>128</v>
       </c>
@@ -1977,7 +2285,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>129</v>
       </c>
@@ -1987,7 +2295,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>130</v>
       </c>
@@ -1997,7 +2305,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>131</v>
       </c>
@@ -2007,7 +2315,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>132</v>
       </c>
@@ -2017,7 +2325,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>133</v>
       </c>
@@ -2027,7 +2335,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>134</v>
       </c>
@@ -2037,7 +2345,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>135</v>
       </c>
@@ -2047,7 +2355,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>136</v>
       </c>
@@ -2057,7 +2365,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>137</v>
       </c>
@@ -2067,7 +2375,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>138</v>
       </c>
@@ -2077,7 +2385,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>139</v>
       </c>
@@ -2087,7 +2395,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>140</v>
       </c>
@@ -2097,7 +2405,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>141</v>
       </c>
@@ -2107,7 +2415,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>142</v>
       </c>
@@ -2117,7 +2425,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>143</v>
       </c>
@@ -2127,7 +2435,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>144</v>
       </c>
@@ -2137,7 +2445,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>145</v>
       </c>
@@ -2147,7 +2455,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>146</v>
       </c>
@@ -2157,7 +2465,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>147</v>
       </c>
@@ -2167,7 +2475,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>148</v>
       </c>
@@ -2177,7 +2485,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>149</v>
       </c>
@@ -2187,7 +2495,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>150</v>
       </c>
@@ -2197,7 +2505,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>151</v>
       </c>
@@ -2207,7 +2515,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>152</v>
       </c>
@@ -2217,7 +2525,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>153</v>
       </c>
@@ -2227,7 +2535,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>154</v>
       </c>
@@ -2237,7 +2545,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>155</v>
       </c>
@@ -2247,7 +2555,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>156</v>
       </c>
@@ -2257,7 +2565,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>157</v>
       </c>
@@ -2268,12 +2576,7 @@
       <c r="F141" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mutation-analysis/mutants-rasa/results_Veterinary.xlsx
+++ b/mutation-analysis/mutants-rasa/results_Veterinary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E38D1D-0C57-471B-91E4-6CF3C17B191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502FA26-55E5-430C-8951-E0F730B282AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
   <si>
     <t>mutant</t>
   </si>
@@ -149,13 +149,7 @@
     <t>killed?</t>
   </si>
   <si>
-    <t>killed by appointment_hour – not sure this is legit error</t>
-  </si>
-  <si>
     <t>mutant_DPR_001</t>
-  </si>
-  <si>
-    <t>Sensei no parece detectar que hay un fallo aunque sigue intentándo la conversación</t>
   </si>
   <si>
     <t>mutant_DSYN_001</t>
@@ -1014,7 +1008,7 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,11 +1119,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6">
         <f>100*(COUNTIF(C2:C141,"killed")+COUNTIF(D2:D141,"killed*"))/I2</f>
-        <v>85.714285714285708</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1197,6 +1191,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+      <c r="H12">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1244,7 +1242,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1252,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1262,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1280,7 +1278,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1296,7 +1294,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1312,7 +1310,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1320,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1338,13 +1336,11 @@
       <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
@@ -1359,13 +1355,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1373,9 +1366,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
@@ -1391,9 +1384,9 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
@@ -1409,9 +1402,9 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1419,9 +1412,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1429,9 +1422,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1439,9 +1432,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
@@ -1455,9 +1448,9 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1467,7 +1460,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1477,7 +1470,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1487,7 +1480,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>11</v>
@@ -1505,7 +1498,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1515,7 +1508,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1525,7 +1518,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1535,7 +1528,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1545,7 +1538,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1555,7 +1548,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1565,7 +1558,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1575,7 +1568,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>11</v>
@@ -1593,7 +1586,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1603,7 +1596,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1613,7 +1606,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1623,7 +1616,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1633,7 +1626,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1643,7 +1636,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1653,7 +1646,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1663,7 +1656,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1673,7 +1666,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1683,7 +1676,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1693,7 +1686,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1703,7 +1696,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1713,7 +1706,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1723,7 +1716,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1733,7 +1726,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1743,7 +1736,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1753,7 +1746,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1763,7 +1756,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1773,7 +1766,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1783,7 +1776,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1793,7 +1786,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1803,7 +1796,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1813,7 +1806,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1823,7 +1816,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1833,7 +1826,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1843,7 +1836,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1853,7 +1846,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1863,7 +1856,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1873,7 +1866,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1883,7 +1876,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1893,7 +1886,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1903,7 +1896,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1913,7 +1906,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1923,7 +1916,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1933,7 +1926,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1943,7 +1936,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1953,21 +1946,23 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1977,7 +1972,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1987,7 +1982,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1997,7 +1992,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2007,7 +2002,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2017,7 +2012,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2027,7 +2022,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2037,7 +2032,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2047,7 +2042,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2057,7 +2052,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2067,7 +2062,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2077,7 +2072,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2087,7 +2082,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2097,7 +2092,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2107,7 +2102,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2117,7 +2112,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2127,7 +2122,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2137,7 +2132,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2147,7 +2142,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2157,7 +2152,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2167,7 +2162,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2177,7 +2172,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2187,7 +2182,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2197,7 +2192,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2207,7 +2202,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2217,7 +2212,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2227,7 +2222,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2237,7 +2232,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2247,7 +2242,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2257,7 +2252,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2267,7 +2262,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2277,7 +2272,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2287,7 +2282,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2297,7 +2292,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2307,7 +2302,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2317,7 +2312,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2327,7 +2322,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2337,7 +2332,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2347,7 +2342,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2357,7 +2352,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2367,7 +2362,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2377,7 +2372,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2387,7 +2382,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2397,7 +2392,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2407,7 +2402,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2417,7 +2412,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2427,7 +2422,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2437,7 +2432,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2447,7 +2442,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2457,7 +2452,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2467,7 +2462,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2477,7 +2472,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2487,7 +2482,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2497,7 +2492,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2507,7 +2502,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2517,7 +2512,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2527,7 +2522,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2537,7 +2532,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2547,7 +2542,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2557,7 +2552,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2567,7 +2562,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
